--- a/DEGCounts.xlsx
+++ b/DEGCounts.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lrutter/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lrutter/Desktop/HoneyBeePaper/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="460" windowWidth="15780" windowHeight="14480" tabRatio="500"/>
+    <workbookView xWindow="9600" yWindow="460" windowWidth="15780" windowHeight="14480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="43">
   <si>
     <t>C higher</t>
   </si>
@@ -72,6 +72,90 @@
   </si>
   <si>
     <t>VR higher</t>
+  </si>
+  <si>
+    <t>GDV</t>
+  </si>
+  <si>
+    <t>GDC</t>
+  </si>
+  <si>
+    <t>GEV</t>
+  </si>
+  <si>
+    <t>GEC</t>
+  </si>
+  <si>
+    <t>GLV</t>
+  </si>
+  <si>
+    <t>GLC</t>
+  </si>
+  <si>
+    <t>RDC</t>
+  </si>
+  <si>
+    <t>RDR</t>
+  </si>
+  <si>
+    <t>RD_DIET</t>
+  </si>
+  <si>
+    <t>RE_DIET</t>
+  </si>
+  <si>
+    <t>RER</t>
+  </si>
+  <si>
+    <t>REC</t>
+  </si>
+  <si>
+    <t>RLC</t>
+  </si>
+  <si>
+    <t>RLR</t>
+  </si>
+  <si>
+    <t>RL_DIET</t>
+  </si>
+  <si>
+    <t>RDV</t>
+  </si>
+  <si>
+    <t>REV</t>
+  </si>
+  <si>
+    <t>RLV</t>
+  </si>
+  <si>
+    <t>RDN</t>
+  </si>
+  <si>
+    <t>REN</t>
+  </si>
+  <si>
+    <t>RLN</t>
+  </si>
+  <si>
+    <t>RD_VIRUS</t>
+  </si>
+  <si>
+    <t>RE_VIRUS</t>
+  </si>
+  <si>
+    <t>RL_VIRUS</t>
+  </si>
+  <si>
+    <t>GD_VIRUS</t>
+  </si>
+  <si>
+    <t>GE_VIRUS</t>
+  </si>
+  <si>
+    <t>GL_VIRUS</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -440,20 +524,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -464,7 +548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -477,8 +561,20 @@
       <c r="D3">
         <v>1914</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -492,8 +588,20 @@
         <f>B4+C4</f>
         <v>1721</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -507,8 +615,20 @@
         <f>B5+C5</f>
         <v>1640</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -519,7 +639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -532,8 +652,20 @@
       <c r="D8">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -546,8 +678,20 @@
       <c r="D9">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -560,8 +704,20 @@
       <c r="D10">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -575,7 +731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -588,8 +744,17 @@
       <c r="D13">
         <v>1019</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -603,8 +768,17 @@
         <f>SUM(B14:C14)</f>
         <v>730</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -617,6 +791,15 @@
       <c r="D15">
         <f>SUM(B15:C15)</f>
         <v>213</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">

--- a/DEGCounts.xlsx
+++ b/DEGCounts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="460" windowWidth="15780" windowHeight="14480" tabRatio="500"/>
+    <workbookView xWindow="12760" yWindow="460" windowWidth="12620" windowHeight="14480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="43">
   <si>
     <t>C higher</t>
   </si>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -753,6 +753,9 @@
       <c r="H13" t="s">
         <v>39</v>
       </c>
+      <c r="I13" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -777,6 +780,9 @@
       <c r="H14" t="s">
         <v>40</v>
       </c>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -800,6 +806,9 @@
       </c>
       <c r="H15" t="s">
         <v>41</v>
+      </c>
+      <c r="I15" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">

--- a/DEGCounts.xlsx
+++ b/DEGCounts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12760" yWindow="460" windowWidth="12620" windowHeight="14480" tabRatio="500"/>
+    <workbookView xWindow="17460" yWindow="460" windowWidth="10560" windowHeight="14480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,15 +53,9 @@
     <t>N higher</t>
   </si>
   <si>
-    <t>TOTH</t>
-  </si>
-  <si>
     <t>GALBRAITH</t>
   </si>
   <si>
-    <t>TOTH PAIRS</t>
-  </si>
-  <si>
     <t>NC higher</t>
   </si>
   <si>
@@ -98,12 +92,6 @@
     <t>RDR</t>
   </si>
   <si>
-    <t>RD_DIET</t>
-  </si>
-  <si>
-    <t>RE_DIET</t>
-  </si>
-  <si>
     <t>RER</t>
   </si>
   <si>
@@ -116,9 +104,6 @@
     <t>RLR</t>
   </si>
   <si>
-    <t>RL_DIET</t>
-  </si>
-  <si>
     <t>RDV</t>
   </si>
   <si>
@@ -137,25 +122,40 @@
     <t>RLN</t>
   </si>
   <si>
-    <t>RD_VIRUS</t>
-  </si>
-  <si>
-    <t>RE_VIRUS</t>
-  </si>
-  <si>
-    <t>RL_VIRUS</t>
-  </si>
-  <si>
-    <t>GD_VIRUS</t>
-  </si>
-  <si>
-    <t>GE_VIRUS</t>
-  </si>
-  <si>
-    <t>GL_VIRUS</t>
-  </si>
-  <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>GD_TOTAL</t>
+  </si>
+  <si>
+    <t>GE_TOTAL</t>
+  </si>
+  <si>
+    <t>GL_TOTAL</t>
+  </si>
+  <si>
+    <t>RD_VIRUS_TOTAL</t>
+  </si>
+  <si>
+    <t>RE_VIRUS_TOTAL</t>
+  </si>
+  <si>
+    <t>RL_VIRUS_TOTAL</t>
+  </si>
+  <si>
+    <t>RD_DIET_TOTAL</t>
+  </si>
+  <si>
+    <t>RE_DIET_TOTAL</t>
+  </si>
+  <si>
+    <t>RL_DIET_TOTAL</t>
+  </si>
+  <si>
+    <t>RUTTER</t>
+  </si>
+  <si>
+    <t>RUTTER PAIRS</t>
   </si>
 </sst>
 </file>
@@ -526,15 +526,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -562,16 +567,16 @@
         <v>1914</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -589,16 +594,16 @@
         <v>1721</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -616,16 +621,16 @@
         <v>1640</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -653,16 +658,16 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -679,16 +684,16 @@
         <v>20</v>
       </c>
       <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s">
         <v>31</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -705,21 +710,21 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -745,16 +750,16 @@
         <v>1019</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -772,16 +777,16 @@
         <v>730</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H14" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -799,27 +804,27 @@
         <v>213</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
         <v>10</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
       </c>
       <c r="D17" t="s">
         <v>2</v>
@@ -869,13 +874,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
         <v>2</v>
@@ -925,13 +930,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
         <v>10</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>12</v>
-      </c>
-      <c r="C27" t="s">
-        <v>14</v>
       </c>
       <c r="D27" t="s">
         <v>2</v>
@@ -981,13 +986,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>2</v>
@@ -1038,13 +1043,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="C37" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>2</v>
@@ -1100,13 +1105,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>2</v>

--- a/DEGCounts.xlsx
+++ b/DEGCounts.xlsx
@@ -146,31 +146,31 @@
     <t>RL_DIET_TOTAL</t>
   </si>
   <si>
-    <t>RUTTER VIRUS EFFECT</t>
-  </si>
-  <si>
     <t>GALBRAITH VIRUS EFFECT</t>
   </si>
   <si>
-    <t>RUTTER DIET EFFECT</t>
-  </si>
-  <si>
-    <t>RUTTER PAIRS (NC, VC)</t>
-  </si>
-  <si>
-    <t>RUTTER PAIRS (NR, VR)</t>
-  </si>
-  <si>
-    <t>RUTTER PAIRS (VC, VR)</t>
-  </si>
-  <si>
-    <t>RUTTER PAIRS (NC, VR)</t>
-  </si>
-  <si>
-    <t>RUTTER PAIRS (VC, NR)</t>
-  </si>
-  <si>
-    <t>RUTTER PAIRS (NC, NR)</t>
+    <t>OUR DIET EFFECT</t>
+  </si>
+  <si>
+    <t>OUR VIRUS EFFECT</t>
+  </si>
+  <si>
+    <t>OUR PAIRS (NC, VC)</t>
+  </si>
+  <si>
+    <t>OUR PAIRS (NR, VR)</t>
+  </si>
+  <si>
+    <t>OUR PAIRS (VC, VR)</t>
+  </si>
+  <si>
+    <t>OUR PAIRS (NC, VR)</t>
+  </si>
+  <si>
+    <t>OUR PAIRS (VC, NR)</t>
+  </si>
+  <si>
+    <t>OUR PAIRS (NC, NR)</t>
   </si>
 </sst>
 </file>
@@ -596,13 +596,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="A1:C39"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.1640625" customWidth="1"/>
     <col min="6" max="7" width="4.6640625" bestFit="1" customWidth="1"/>
@@ -611,7 +611,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>6</v>
@@ -808,7 +808,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>6</v>
